--- a/Daily Health Checkup/Zeppelin_Notebooks/WF_Info.xlsx
+++ b/Daily Health Checkup/Zeppelin_Notebooks/WF_Info.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="158">
   <si>
     <t>Daily</t>
   </si>
@@ -475,6 +476,93 @@
   </si>
   <si>
     <t xml:space="preserve">/projects/equip/scripts/spark/monitor_ingestion.py	</t>
+  </si>
+  <si>
+    <t>oozie jobs -filter "name=EQUIP-AVES-Condense-Weekly-BDE-STG-wf" | sed -n '3p' | sed -e 's/wf/wf /g'</t>
+  </si>
+  <si>
+    <t>oozie jobs -filter "name=EQUIP-AVES-Ingest-Daily-BDE-PRD-wf" | sed -n '3p' | sed -e 's/wf/wf /g'</t>
+  </si>
+  <si>
+    <t>oozie jobs -filter "name=ConsumerAffairs-Condense-Weekly-BDE-PRD-wf" | sed -n '3p' | sed -e 's/wf/wf /g'</t>
+  </si>
+  <si>
+    <t>oozie jobs -filter "name=ConsumerAffairs-Ingest-Daily-BDE-PRD-wf" | sed -n '3p' | sed -e 's/wf/wf /g'</t>
+  </si>
+  <si>
+    <t>oozie jobs -filter "name=EQUIP-ConsumerAffairs-Condense-Weekly-BDE-PRD-wf" | sed -n '3p' | sed -e 's/wf/wf /g'</t>
+  </si>
+  <si>
+    <t>oozie jobs -filter "name=EQUIP-ConsumerAffairs-Solr-Daily-BDE-PRD-wf" | sed -n '3p' | sed -e 's/wf/wf /g'</t>
+  </si>
+  <si>
+    <t>oozie jobs -filter "name=Claims-Condense-Weekly-BDE-PRD-wf" | sed -n '3p' | sed -e 's/wf/wf /g'</t>
+  </si>
+  <si>
+    <t>oozie jobs -filter "name=Claims-Ingest-Daily-BDE-PRD-wf" | sed -n '3p' | sed -e 's/wf/wf /g'</t>
+  </si>
+  <si>
+    <t>oozie jobs -filter "name=EQUIP-Claims-Condense-Daily-BDE-PRD-wf" | sed -n '3p' | sed -e 's/wf/wf /g'</t>
+  </si>
+  <si>
+    <t>oozie jobs -filter "name=EQUIP-Claims-Solr-Daily-BDE-PRD-wf" | sed -n '3p' | sed -e 's/wf/wf /g'</t>
+  </si>
+  <si>
+    <t>oozie jobs -filter "name=EQUIP-Monitor-Ingestion-Daily-BDE-PRD-wf" | sed -n '3p' | sed -e 's/wf/wf /g'</t>
+  </si>
+  <si>
+    <t>oozie jobs -filter "name=EQUIP-Gear-2-0-Monthly-BDE-PRD-wf " | sed -n '3p' | sed -e 's/wf/wf /g'</t>
+  </si>
+  <si>
+    <t>oozie jobs -filter "name=EQUIP-Gears-3.0-Adhoc-BDE-PRD-wf" | sed -n '3p' | sed -e 's/wf/wf /g'</t>
+  </si>
+  <si>
+    <t>oozie jobs -filter "name=EQUIP-Materialized-Views-BDE-PRD-wf" | sed -n '3p' | sed -e 's/wf/wf /g'</t>
+  </si>
+  <si>
+    <t>oozie jobs -filter "name=EQUIP-INSPECT-Condense-Weekly-BDE-PRD-wf" | sed -n '3p' | sed -e 's/wf/wf /g'</t>
+  </si>
+  <si>
+    <t>oozie jobs -filter "name=EQUIP-INSPECT-Ingest-Daily-BDE-PRD-wf" | sed -n '3p' | sed -e 's/wf/wf /g'</t>
+  </si>
+  <si>
+    <t>oozie jobs -filter "name=EQUIP-incident-rate-daily-wf" | sed -n '3p' | sed -e 's/wf/wf /g'</t>
+  </si>
+  <si>
+    <t>oozie jobs -filter "name=EQUIP-MQR-Calculations-Monthly-wf" | sed -n '3p' | sed -e 's/wf/wf /g'</t>
+  </si>
+  <si>
+    <t>oozie jobs -filter "name=EQUIP-MQR-Purge-Monthly-wf" | sed -n '3p' | sed -e 's/wf/wf /g'</t>
+  </si>
+  <si>
+    <t>oozie jobs -filter "name=EQUIP-MQR-Snapshot-Monthly-wf" | sed -n '3p' | sed -e 's/wf/wf /g'</t>
+  </si>
+  <si>
+    <t>oozie jobs -filter "name=EQUIP-MQR-Source-Ingestion-Daily-wf" | sed -n '3p' | sed -e 's/wf/wf /g'</t>
+  </si>
+  <si>
+    <t>oozie jobs -filter "name=EQUIP-pfp-daily-ingest-wf" | sed -n '3p' | sed -e 's/wf/wf /g'</t>
+  </si>
+  <si>
+    <t>oozie jobs -filter "name=QCS-survey-Ingest-Fullload-Daily-BDE-PRD-wf" | sed -n '3p' | sed -e 's/wf/wf /g'</t>
+  </si>
+  <si>
+    <t>oozie jobs -filter "name=QCS-survey-Ingest-Incremental-Daily-BDE-PRD-wf " | sed -n '3p' | sed -e 's/wf/wf /g'</t>
+  </si>
+  <si>
+    <t>oozie jobs -filter "name=EQUIP-Techline-Condense-Weekly-BDE-PRD-wf" | sed -n '3p' | sed -e 's/wf/wf /g'</t>
+  </si>
+  <si>
+    <t>oozie jobs -filter "name=EQUIP-Techline-Solr-Daily-BDE-PRD-wf" | sed -n '3p' | sed -e 's/wf/wf /g'</t>
+  </si>
+  <si>
+    <t>oozie jobs -filter "name=Techline-Condense-Weekly-BDE-PRD-wf" | sed -n '3p' | sed -e 's/wf/wf /g'</t>
+  </si>
+  <si>
+    <t>oozie jobs -filter "name=Techline-Ingest-Daily-BDE-PRD-wf" | sed -n '3p' | sed -e 's/wf/wf /g'</t>
+  </si>
+  <si>
+    <t>oozie jobs -filter "name=EQUIP-Vehicle-Extract-Daily-prd-wf" | sed -n '3p' | sed -e 's/wf/wf /g'</t>
   </si>
 </sst>
 </file>
@@ -966,8 +1054,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
@@ -2279,4 +2367,165 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
 </file>